--- a/ResStudio/Prototype/Works.xlsx
+++ b/ResStudio/Prototype/Works.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="49">
   <si>
     <t>Level 1 tasks non in context, e.g. "chol" Aii ???</t>
   </si>
@@ -169,7 +169,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -186,6 +186,13 @@
     </font>
     <font>
       <strike/>
+      <sz val="11"/>
+      <color theme="1" tint="0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1" tint="0.499984740745262"/>
       <name val="Calibri"/>
@@ -234,7 +241,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
@@ -267,12 +274,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -282,7 +284,16 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -590,7 +601,7 @@
   <dimension ref="A1:BP35"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A36" sqref="A36"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
@@ -612,304 +623,304 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:68" x14ac:dyDescent="0.25">
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="D1" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
-      <c r="K1" s="14"/>
-      <c r="L1" s="14"/>
-      <c r="M1" s="14"/>
-      <c r="N1" s="13" t="s">
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
+      <c r="K1" s="13"/>
+      <c r="L1" s="13"/>
+      <c r="M1" s="13"/>
+      <c r="N1" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="O1" s="16" t="s">
+      <c r="O1" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="P1" s="16"/>
-      <c r="Q1" s="16"/>
-      <c r="R1" s="16"/>
-      <c r="S1" s="16"/>
-      <c r="T1" s="16"/>
-      <c r="U1" s="16"/>
-      <c r="V1" s="16"/>
-      <c r="W1" s="16"/>
-      <c r="X1" s="16"/>
-      <c r="Y1" s="13" t="s">
+      <c r="P1" s="15"/>
+      <c r="Q1" s="15"/>
+      <c r="R1" s="15"/>
+      <c r="S1" s="15"/>
+      <c r="T1" s="15"/>
+      <c r="U1" s="15"/>
+      <c r="V1" s="15"/>
+      <c r="W1" s="15"/>
+      <c r="X1" s="15"/>
+      <c r="Y1" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="Z1" s="14" t="s">
+      <c r="Z1" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="AA1" s="14"/>
-      <c r="AB1" s="14"/>
-      <c r="AC1" s="14"/>
-      <c r="AD1" s="14"/>
-      <c r="AE1" s="14"/>
-      <c r="AF1" s="14"/>
-      <c r="AG1" s="14"/>
-      <c r="AH1" s="14"/>
-      <c r="AI1" s="14"/>
-      <c r="AJ1" s="13" t="s">
+      <c r="AA1" s="13"/>
+      <c r="AB1" s="13"/>
+      <c r="AC1" s="13"/>
+      <c r="AD1" s="13"/>
+      <c r="AE1" s="13"/>
+      <c r="AF1" s="13"/>
+      <c r="AG1" s="13"/>
+      <c r="AH1" s="13"/>
+      <c r="AI1" s="13"/>
+      <c r="AJ1" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="AK1" s="14" t="s">
+      <c r="AK1" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="AL1" s="14"/>
-      <c r="AM1" s="14"/>
-      <c r="AN1" s="14"/>
-      <c r="AO1" s="14"/>
-      <c r="AP1" s="14"/>
-      <c r="AQ1" s="14"/>
-      <c r="AR1" s="14"/>
-      <c r="AS1" s="14"/>
-      <c r="AT1" s="14"/>
-      <c r="AU1" s="13" t="s">
+      <c r="AL1" s="13"/>
+      <c r="AM1" s="13"/>
+      <c r="AN1" s="13"/>
+      <c r="AO1" s="13"/>
+      <c r="AP1" s="13"/>
+      <c r="AQ1" s="13"/>
+      <c r="AR1" s="13"/>
+      <c r="AS1" s="13"/>
+      <c r="AT1" s="13"/>
+      <c r="AU1" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="AV1" s="14" t="s">
+      <c r="AV1" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="AW1" s="14"/>
-      <c r="AX1" s="14"/>
-      <c r="AY1" s="14"/>
-      <c r="AZ1" s="14"/>
-      <c r="BA1" s="14"/>
-      <c r="BB1" s="14"/>
-      <c r="BC1" s="14"/>
-      <c r="BD1" s="14"/>
-      <c r="BE1" s="14"/>
-      <c r="BF1" s="13" t="s">
+      <c r="AW1" s="13"/>
+      <c r="AX1" s="13"/>
+      <c r="AY1" s="13"/>
+      <c r="AZ1" s="13"/>
+      <c r="BA1" s="13"/>
+      <c r="BB1" s="13"/>
+      <c r="BC1" s="13"/>
+      <c r="BD1" s="13"/>
+      <c r="BE1" s="13"/>
+      <c r="BF1" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="BG1" s="14" t="s">
+      <c r="BG1" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="BH1" s="14"/>
-      <c r="BI1" s="14"/>
-      <c r="BJ1" s="14"/>
-      <c r="BK1" s="14"/>
-      <c r="BL1" s="14"/>
-      <c r="BM1" s="14"/>
-      <c r="BN1" s="14"/>
-      <c r="BO1" s="14"/>
-      <c r="BP1" s="14"/>
+      <c r="BH1" s="13"/>
+      <c r="BI1" s="13"/>
+      <c r="BJ1" s="13"/>
+      <c r="BK1" s="13"/>
+      <c r="BL1" s="13"/>
+      <c r="BM1" s="13"/>
+      <c r="BN1" s="13"/>
+      <c r="BO1" s="13"/>
+      <c r="BP1" s="13"/>
     </row>
     <row r="2" spans="1:68" x14ac:dyDescent="0.25">
-      <c r="C2" s="12"/>
-      <c r="D2" s="14" t="s">
+      <c r="C2" s="17"/>
+      <c r="D2" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="E2" s="14"/>
-      <c r="F2" s="15" t="s">
+      <c r="E2" s="13"/>
+      <c r="F2" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
-      <c r="K2" s="15"/>
-      <c r="L2" s="15"/>
-      <c r="M2" s="15"/>
-      <c r="N2" s="13"/>
-      <c r="O2" s="14" t="s">
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="14"/>
+      <c r="K2" s="14"/>
+      <c r="L2" s="14"/>
+      <c r="M2" s="14"/>
+      <c r="N2" s="16"/>
+      <c r="O2" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="P2" s="14"/>
-      <c r="Q2" s="15" t="s">
+      <c r="P2" s="13"/>
+      <c r="Q2" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="R2" s="15"/>
-      <c r="S2" s="15"/>
-      <c r="T2" s="15"/>
-      <c r="U2" s="15"/>
-      <c r="V2" s="15"/>
-      <c r="W2" s="15"/>
-      <c r="X2" s="15"/>
-      <c r="Y2" s="13"/>
-      <c r="Z2" s="14" t="s">
+      <c r="R2" s="14"/>
+      <c r="S2" s="14"/>
+      <c r="T2" s="14"/>
+      <c r="U2" s="14"/>
+      <c r="V2" s="14"/>
+      <c r="W2" s="14"/>
+      <c r="X2" s="14"/>
+      <c r="Y2" s="16"/>
+      <c r="Z2" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="AA2" s="14"/>
-      <c r="AB2" s="15" t="s">
+      <c r="AA2" s="13"/>
+      <c r="AB2" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="AC2" s="15"/>
-      <c r="AD2" s="15"/>
-      <c r="AE2" s="15"/>
-      <c r="AF2" s="15"/>
-      <c r="AG2" s="15"/>
-      <c r="AH2" s="15"/>
-      <c r="AI2" s="15"/>
-      <c r="AJ2" s="13"/>
-      <c r="AK2" s="14" t="s">
+      <c r="AC2" s="14"/>
+      <c r="AD2" s="14"/>
+      <c r="AE2" s="14"/>
+      <c r="AF2" s="14"/>
+      <c r="AG2" s="14"/>
+      <c r="AH2" s="14"/>
+      <c r="AI2" s="14"/>
+      <c r="AJ2" s="16"/>
+      <c r="AK2" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="AL2" s="14"/>
-      <c r="AM2" s="15" t="s">
+      <c r="AL2" s="13"/>
+      <c r="AM2" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="AN2" s="15"/>
-      <c r="AO2" s="15"/>
-      <c r="AP2" s="15"/>
-      <c r="AQ2" s="15"/>
-      <c r="AR2" s="15"/>
-      <c r="AS2" s="15"/>
-      <c r="AT2" s="15"/>
-      <c r="AU2" s="13"/>
-      <c r="AV2" s="14" t="s">
+      <c r="AN2" s="14"/>
+      <c r="AO2" s="14"/>
+      <c r="AP2" s="14"/>
+      <c r="AQ2" s="14"/>
+      <c r="AR2" s="14"/>
+      <c r="AS2" s="14"/>
+      <c r="AT2" s="14"/>
+      <c r="AU2" s="16"/>
+      <c r="AV2" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="AW2" s="14"/>
-      <c r="AX2" s="15" t="s">
+      <c r="AW2" s="13"/>
+      <c r="AX2" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="AY2" s="15"/>
-      <c r="AZ2" s="15"/>
-      <c r="BA2" s="15"/>
-      <c r="BB2" s="15"/>
-      <c r="BC2" s="15"/>
-      <c r="BD2" s="15"/>
-      <c r="BE2" s="15"/>
-      <c r="BF2" s="13"/>
-      <c r="BG2" s="14" t="s">
+      <c r="AY2" s="14"/>
+      <c r="AZ2" s="14"/>
+      <c r="BA2" s="14"/>
+      <c r="BB2" s="14"/>
+      <c r="BC2" s="14"/>
+      <c r="BD2" s="14"/>
+      <c r="BE2" s="14"/>
+      <c r="BF2" s="16"/>
+      <c r="BG2" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="BH2" s="14"/>
-      <c r="BI2" s="15" t="s">
+      <c r="BH2" s="13"/>
+      <c r="BI2" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="BJ2" s="15"/>
-      <c r="BK2" s="15"/>
-      <c r="BL2" s="15"/>
-      <c r="BM2" s="15"/>
-      <c r="BN2" s="15"/>
-      <c r="BO2" s="15"/>
-      <c r="BP2" s="15"/>
+      <c r="BJ2" s="14"/>
+      <c r="BK2" s="14"/>
+      <c r="BL2" s="14"/>
+      <c r="BM2" s="14"/>
+      <c r="BN2" s="14"/>
+      <c r="BO2" s="14"/>
+      <c r="BP2" s="14"/>
     </row>
     <row r="3" spans="1:68" x14ac:dyDescent="0.25">
-      <c r="C3" s="12"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14" t="s">
+      <c r="C3" s="17"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="G3" s="14"/>
-      <c r="H3" s="14" t="s">
+      <c r="G3" s="13"/>
+      <c r="H3" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="14"/>
-      <c r="J3" s="14" t="s">
+      <c r="I3" s="13"/>
+      <c r="J3" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="K3" s="14"/>
-      <c r="L3" s="15" t="s">
+      <c r="K3" s="13"/>
+      <c r="L3" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="M3" s="15"/>
-      <c r="N3" s="13"/>
-      <c r="O3" s="14"/>
-      <c r="P3" s="14"/>
-      <c r="Q3" s="14" t="s">
+      <c r="M3" s="14"/>
+      <c r="N3" s="16"/>
+      <c r="O3" s="13"/>
+      <c r="P3" s="13"/>
+      <c r="Q3" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="R3" s="14"/>
-      <c r="S3" s="14" t="s">
+      <c r="R3" s="13"/>
+      <c r="S3" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="T3" s="14"/>
-      <c r="U3" s="14" t="s">
+      <c r="T3" s="13"/>
+      <c r="U3" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="V3" s="14"/>
-      <c r="W3" s="15" t="s">
+      <c r="V3" s="13"/>
+      <c r="W3" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="X3" s="15"/>
-      <c r="Y3" s="13"/>
-      <c r="Z3" s="14"/>
-      <c r="AA3" s="14"/>
-      <c r="AB3" s="14" t="s">
+      <c r="X3" s="14"/>
+      <c r="Y3" s="16"/>
+      <c r="Z3" s="13"/>
+      <c r="AA3" s="13"/>
+      <c r="AB3" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="AC3" s="14"/>
-      <c r="AD3" s="14" t="s">
+      <c r="AC3" s="13"/>
+      <c r="AD3" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="AE3" s="14"/>
-      <c r="AF3" s="14" t="s">
+      <c r="AE3" s="13"/>
+      <c r="AF3" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="AG3" s="14"/>
-      <c r="AH3" s="15" t="s">
+      <c r="AG3" s="13"/>
+      <c r="AH3" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="AI3" s="15"/>
-      <c r="AJ3" s="13"/>
-      <c r="AK3" s="14"/>
-      <c r="AL3" s="14"/>
-      <c r="AM3" s="14" t="s">
+      <c r="AI3" s="14"/>
+      <c r="AJ3" s="16"/>
+      <c r="AK3" s="13"/>
+      <c r="AL3" s="13"/>
+      <c r="AM3" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="AN3" s="14"/>
-      <c r="AO3" s="14" t="s">
+      <c r="AN3" s="13"/>
+      <c r="AO3" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="AP3" s="14"/>
-      <c r="AQ3" s="14" t="s">
+      <c r="AP3" s="13"/>
+      <c r="AQ3" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="AR3" s="14"/>
-      <c r="AS3" s="15" t="s">
+      <c r="AR3" s="13"/>
+      <c r="AS3" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="AT3" s="15"/>
-      <c r="AU3" s="13"/>
-      <c r="AV3" s="14"/>
-      <c r="AW3" s="14"/>
-      <c r="AX3" s="14" t="s">
+      <c r="AT3" s="14"/>
+      <c r="AU3" s="16"/>
+      <c r="AV3" s="13"/>
+      <c r="AW3" s="13"/>
+      <c r="AX3" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="AY3" s="14"/>
-      <c r="AZ3" s="14" t="s">
+      <c r="AY3" s="13"/>
+      <c r="AZ3" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="BA3" s="14"/>
-      <c r="BB3" s="14" t="s">
+      <c r="BA3" s="13"/>
+      <c r="BB3" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="BC3" s="14"/>
-      <c r="BD3" s="15" t="s">
+      <c r="BC3" s="13"/>
+      <c r="BD3" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="BE3" s="15"/>
-      <c r="BF3" s="13"/>
-      <c r="BG3" s="14"/>
-      <c r="BH3" s="14"/>
-      <c r="BI3" s="14" t="s">
+      <c r="BE3" s="14"/>
+      <c r="BF3" s="16"/>
+      <c r="BG3" s="13"/>
+      <c r="BH3" s="13"/>
+      <c r="BI3" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="BJ3" s="14"/>
-      <c r="BK3" s="14" t="s">
+      <c r="BJ3" s="13"/>
+      <c r="BK3" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="BL3" s="14"/>
-      <c r="BM3" s="14" t="s">
+      <c r="BL3" s="13"/>
+      <c r="BM3" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="BN3" s="14"/>
-      <c r="BO3" s="15" t="s">
+      <c r="BN3" s="13"/>
+      <c r="BO3" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="BP3" s="15"/>
+      <c r="BP3" s="14"/>
     </row>
     <row r="4" spans="1:68" ht="42.75" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
@@ -1103,7 +1114,7 @@
       </c>
     </row>
     <row r="5" spans="1:68" x14ac:dyDescent="0.25">
-      <c r="A5" s="17" t="s">
+      <c r="A5" s="12" t="s">
         <v>0</v>
       </c>
       <c r="B5" s="5" t="s">
@@ -1229,7 +1240,7 @@
       <c r="BF6" s="5"/>
     </row>
     <row r="7" spans="1:68" x14ac:dyDescent="0.25">
-      <c r="A7" s="17" t="s">
+      <c r="A7" s="12" t="s">
         <v>2</v>
       </c>
       <c r="B7" s="5" t="s">
@@ -1299,7 +1310,7 @@
       <c r="BF7" s="5"/>
     </row>
     <row r="8" spans="1:68" x14ac:dyDescent="0.25">
-      <c r="A8" s="17" t="s">
+      <c r="A8" s="12" t="s">
         <v>31</v>
       </c>
       <c r="B8" s="5" t="s">
@@ -1571,7 +1582,7 @@
       <c r="BF11" s="5"/>
     </row>
     <row r="12" spans="1:68" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="A12" s="19" t="s">
         <v>44</v>
       </c>
       <c r="B12" s="5" t="s">
@@ -1643,16 +1654,22 @@
       <c r="BF12" s="5"/>
     </row>
     <row r="13" spans="1:68" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="A13" s="19" t="s">
         <v>45</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C13" s="8"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
+      <c r="D13" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>42</v>
+      </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
       <c r="I13" s="5"/>
@@ -1770,15 +1787,19 @@
         <v>29</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C15" s="8"/>
       <c r="D15" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
+        <v>42</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G15" s="18"/>
       <c r="H15" s="5"/>
       <c r="I15" s="5"/>
       <c r="J15" s="5"/>
@@ -3081,38 +3102,6 @@
     </row>
   </sheetData>
   <mergeCells count="48">
-    <mergeCell ref="O2:P3"/>
-    <mergeCell ref="D1:M1"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="F2:M2"/>
-    <mergeCell ref="O1:X1"/>
-    <mergeCell ref="Q2:X2"/>
-    <mergeCell ref="AB3:AC3"/>
-    <mergeCell ref="AD3:AE3"/>
-    <mergeCell ref="AF3:AG3"/>
-    <mergeCell ref="AH3:AI3"/>
-    <mergeCell ref="Q3:R3"/>
-    <mergeCell ref="S3:T3"/>
-    <mergeCell ref="U3:V3"/>
-    <mergeCell ref="W3:X3"/>
-    <mergeCell ref="AV1:BE1"/>
-    <mergeCell ref="AV2:AW3"/>
-    <mergeCell ref="AX2:BE2"/>
-    <mergeCell ref="AX3:AY3"/>
-    <mergeCell ref="AZ3:BA3"/>
-    <mergeCell ref="BB3:BC3"/>
-    <mergeCell ref="BD3:BE3"/>
-    <mergeCell ref="BF1:BF3"/>
-    <mergeCell ref="BG1:BP1"/>
-    <mergeCell ref="BG2:BH3"/>
-    <mergeCell ref="BI2:BP2"/>
-    <mergeCell ref="BI3:BJ3"/>
-    <mergeCell ref="BK3:BL3"/>
-    <mergeCell ref="BM3:BN3"/>
-    <mergeCell ref="BO3:BP3"/>
     <mergeCell ref="C1:C3"/>
     <mergeCell ref="N1:N3"/>
     <mergeCell ref="Y1:Y3"/>
@@ -3129,6 +3118,38 @@
     <mergeCell ref="D2:E3"/>
     <mergeCell ref="Z2:AA3"/>
     <mergeCell ref="AB2:AI2"/>
+    <mergeCell ref="BF1:BF3"/>
+    <mergeCell ref="BG1:BP1"/>
+    <mergeCell ref="BG2:BH3"/>
+    <mergeCell ref="BI2:BP2"/>
+    <mergeCell ref="BI3:BJ3"/>
+    <mergeCell ref="BK3:BL3"/>
+    <mergeCell ref="BM3:BN3"/>
+    <mergeCell ref="BO3:BP3"/>
+    <mergeCell ref="AV1:BE1"/>
+    <mergeCell ref="AV2:AW3"/>
+    <mergeCell ref="AX2:BE2"/>
+    <mergeCell ref="AX3:AY3"/>
+    <mergeCell ref="AZ3:BA3"/>
+    <mergeCell ref="BB3:BC3"/>
+    <mergeCell ref="BD3:BE3"/>
+    <mergeCell ref="AB3:AC3"/>
+    <mergeCell ref="AD3:AE3"/>
+    <mergeCell ref="AF3:AG3"/>
+    <mergeCell ref="AH3:AI3"/>
+    <mergeCell ref="Q3:R3"/>
+    <mergeCell ref="S3:T3"/>
+    <mergeCell ref="U3:V3"/>
+    <mergeCell ref="W3:X3"/>
+    <mergeCell ref="O2:P3"/>
+    <mergeCell ref="D1:M1"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="F2:M2"/>
+    <mergeCell ref="O1:X1"/>
+    <mergeCell ref="Q2:X2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>

--- a/ResStudio/Prototype/Works.xlsx
+++ b/ResStudio/Prototype/Works.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="51">
   <si>
     <t>Level 1 tasks non in context, e.g. "chol" Aii ???</t>
   </si>
@@ -163,13 +163,19 @@
   </si>
   <si>
     <t>Dynamic Task generation</t>
+  </si>
+  <si>
+    <t>Context host policy into MatAsm and Chol</t>
+  </si>
+  <si>
+    <t>Context fan in/out &gt; 1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -187,14 +193,7 @@
     <font>
       <strike/>
       <sz val="11"/>
-      <color theme="1" tint="0.499984740745262"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1" tint="0.499984740745262"/>
+      <color theme="0" tint="-0.14999847407452621"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -241,7 +240,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
@@ -274,7 +273,15 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -284,16 +291,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -598,10 +596,10 @@
   <sheetPr>
     <outlinePr summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:BP35"/>
+  <dimension ref="A1:BP37"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
@@ -623,304 +621,304 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:68" x14ac:dyDescent="0.25">
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
-      <c r="J1" s="13"/>
-      <c r="K1" s="13"/>
-      <c r="L1" s="13"/>
-      <c r="M1" s="13"/>
-      <c r="N1" s="16" t="s">
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
+      <c r="L1" s="15"/>
+      <c r="M1" s="15"/>
+      <c r="N1" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="O1" s="15" t="s">
+      <c r="O1" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="P1" s="15"/>
-      <c r="Q1" s="15"/>
-      <c r="R1" s="15"/>
-      <c r="S1" s="15"/>
-      <c r="T1" s="15"/>
-      <c r="U1" s="15"/>
-      <c r="V1" s="15"/>
-      <c r="W1" s="15"/>
-      <c r="X1" s="15"/>
-      <c r="Y1" s="16" t="s">
+      <c r="P1" s="17"/>
+      <c r="Q1" s="17"/>
+      <c r="R1" s="17"/>
+      <c r="S1" s="17"/>
+      <c r="T1" s="17"/>
+      <c r="U1" s="17"/>
+      <c r="V1" s="17"/>
+      <c r="W1" s="17"/>
+      <c r="X1" s="17"/>
+      <c r="Y1" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="Z1" s="13" t="s">
+      <c r="Z1" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="AA1" s="13"/>
-      <c r="AB1" s="13"/>
-      <c r="AC1" s="13"/>
-      <c r="AD1" s="13"/>
-      <c r="AE1" s="13"/>
-      <c r="AF1" s="13"/>
-      <c r="AG1" s="13"/>
-      <c r="AH1" s="13"/>
-      <c r="AI1" s="13"/>
-      <c r="AJ1" s="16" t="s">
+      <c r="AA1" s="15"/>
+      <c r="AB1" s="15"/>
+      <c r="AC1" s="15"/>
+      <c r="AD1" s="15"/>
+      <c r="AE1" s="15"/>
+      <c r="AF1" s="15"/>
+      <c r="AG1" s="15"/>
+      <c r="AH1" s="15"/>
+      <c r="AI1" s="15"/>
+      <c r="AJ1" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="AK1" s="13" t="s">
+      <c r="AK1" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="AL1" s="13"/>
-      <c r="AM1" s="13"/>
-      <c r="AN1" s="13"/>
-      <c r="AO1" s="13"/>
-      <c r="AP1" s="13"/>
-      <c r="AQ1" s="13"/>
-      <c r="AR1" s="13"/>
-      <c r="AS1" s="13"/>
-      <c r="AT1" s="13"/>
-      <c r="AU1" s="16" t="s">
+      <c r="AL1" s="15"/>
+      <c r="AM1" s="15"/>
+      <c r="AN1" s="15"/>
+      <c r="AO1" s="15"/>
+      <c r="AP1" s="15"/>
+      <c r="AQ1" s="15"/>
+      <c r="AR1" s="15"/>
+      <c r="AS1" s="15"/>
+      <c r="AT1" s="15"/>
+      <c r="AU1" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="AV1" s="13" t="s">
+      <c r="AV1" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="AW1" s="13"/>
-      <c r="AX1" s="13"/>
-      <c r="AY1" s="13"/>
-      <c r="AZ1" s="13"/>
-      <c r="BA1" s="13"/>
-      <c r="BB1" s="13"/>
-      <c r="BC1" s="13"/>
-      <c r="BD1" s="13"/>
-      <c r="BE1" s="13"/>
-      <c r="BF1" s="16" t="s">
+      <c r="AW1" s="15"/>
+      <c r="AX1" s="15"/>
+      <c r="AY1" s="15"/>
+      <c r="AZ1" s="15"/>
+      <c r="BA1" s="15"/>
+      <c r="BB1" s="15"/>
+      <c r="BC1" s="15"/>
+      <c r="BD1" s="15"/>
+      <c r="BE1" s="15"/>
+      <c r="BF1" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="BG1" s="13" t="s">
+      <c r="BG1" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="BH1" s="13"/>
-      <c r="BI1" s="13"/>
-      <c r="BJ1" s="13"/>
-      <c r="BK1" s="13"/>
-      <c r="BL1" s="13"/>
-      <c r="BM1" s="13"/>
-      <c r="BN1" s="13"/>
-      <c r="BO1" s="13"/>
-      <c r="BP1" s="13"/>
+      <c r="BH1" s="15"/>
+      <c r="BI1" s="15"/>
+      <c r="BJ1" s="15"/>
+      <c r="BK1" s="15"/>
+      <c r="BL1" s="15"/>
+      <c r="BM1" s="15"/>
+      <c r="BN1" s="15"/>
+      <c r="BO1" s="15"/>
+      <c r="BP1" s="15"/>
     </row>
     <row r="2" spans="1:68" x14ac:dyDescent="0.25">
-      <c r="C2" s="17"/>
-      <c r="D2" s="13" t="s">
+      <c r="C2" s="13"/>
+      <c r="D2" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="E2" s="13"/>
-      <c r="F2" s="14" t="s">
+      <c r="E2" s="15"/>
+      <c r="F2" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="14"/>
-      <c r="J2" s="14"/>
-      <c r="K2" s="14"/>
-      <c r="L2" s="14"/>
-      <c r="M2" s="14"/>
-      <c r="N2" s="16"/>
-      <c r="O2" s="13" t="s">
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="16"/>
+      <c r="J2" s="16"/>
+      <c r="K2" s="16"/>
+      <c r="L2" s="16"/>
+      <c r="M2" s="16"/>
+      <c r="N2" s="14"/>
+      <c r="O2" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="P2" s="13"/>
-      <c r="Q2" s="14" t="s">
+      <c r="P2" s="15"/>
+      <c r="Q2" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="R2" s="14"/>
-      <c r="S2" s="14"/>
-      <c r="T2" s="14"/>
-      <c r="U2" s="14"/>
-      <c r="V2" s="14"/>
-      <c r="W2" s="14"/>
-      <c r="X2" s="14"/>
-      <c r="Y2" s="16"/>
-      <c r="Z2" s="13" t="s">
+      <c r="R2" s="16"/>
+      <c r="S2" s="16"/>
+      <c r="T2" s="16"/>
+      <c r="U2" s="16"/>
+      <c r="V2" s="16"/>
+      <c r="W2" s="16"/>
+      <c r="X2" s="16"/>
+      <c r="Y2" s="14"/>
+      <c r="Z2" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="AA2" s="13"/>
-      <c r="AB2" s="14" t="s">
+      <c r="AA2" s="15"/>
+      <c r="AB2" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="AC2" s="14"/>
-      <c r="AD2" s="14"/>
-      <c r="AE2" s="14"/>
-      <c r="AF2" s="14"/>
-      <c r="AG2" s="14"/>
-      <c r="AH2" s="14"/>
-      <c r="AI2" s="14"/>
-      <c r="AJ2" s="16"/>
-      <c r="AK2" s="13" t="s">
+      <c r="AC2" s="16"/>
+      <c r="AD2" s="16"/>
+      <c r="AE2" s="16"/>
+      <c r="AF2" s="16"/>
+      <c r="AG2" s="16"/>
+      <c r="AH2" s="16"/>
+      <c r="AI2" s="16"/>
+      <c r="AJ2" s="14"/>
+      <c r="AK2" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="AL2" s="13"/>
-      <c r="AM2" s="14" t="s">
+      <c r="AL2" s="15"/>
+      <c r="AM2" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="AN2" s="14"/>
-      <c r="AO2" s="14"/>
-      <c r="AP2" s="14"/>
-      <c r="AQ2" s="14"/>
-      <c r="AR2" s="14"/>
-      <c r="AS2" s="14"/>
-      <c r="AT2" s="14"/>
-      <c r="AU2" s="16"/>
-      <c r="AV2" s="13" t="s">
+      <c r="AN2" s="16"/>
+      <c r="AO2" s="16"/>
+      <c r="AP2" s="16"/>
+      <c r="AQ2" s="16"/>
+      <c r="AR2" s="16"/>
+      <c r="AS2" s="16"/>
+      <c r="AT2" s="16"/>
+      <c r="AU2" s="14"/>
+      <c r="AV2" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="AW2" s="13"/>
-      <c r="AX2" s="14" t="s">
+      <c r="AW2" s="15"/>
+      <c r="AX2" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="AY2" s="14"/>
-      <c r="AZ2" s="14"/>
-      <c r="BA2" s="14"/>
-      <c r="BB2" s="14"/>
-      <c r="BC2" s="14"/>
-      <c r="BD2" s="14"/>
-      <c r="BE2" s="14"/>
-      <c r="BF2" s="16"/>
-      <c r="BG2" s="13" t="s">
+      <c r="AY2" s="16"/>
+      <c r="AZ2" s="16"/>
+      <c r="BA2" s="16"/>
+      <c r="BB2" s="16"/>
+      <c r="BC2" s="16"/>
+      <c r="BD2" s="16"/>
+      <c r="BE2" s="16"/>
+      <c r="BF2" s="14"/>
+      <c r="BG2" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="BH2" s="13"/>
-      <c r="BI2" s="14" t="s">
+      <c r="BH2" s="15"/>
+      <c r="BI2" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="BJ2" s="14"/>
-      <c r="BK2" s="14"/>
-      <c r="BL2" s="14"/>
-      <c r="BM2" s="14"/>
-      <c r="BN2" s="14"/>
-      <c r="BO2" s="14"/>
-      <c r="BP2" s="14"/>
+      <c r="BJ2" s="16"/>
+      <c r="BK2" s="16"/>
+      <c r="BL2" s="16"/>
+      <c r="BM2" s="16"/>
+      <c r="BN2" s="16"/>
+      <c r="BO2" s="16"/>
+      <c r="BP2" s="16"/>
     </row>
     <row r="3" spans="1:68" x14ac:dyDescent="0.25">
-      <c r="C3" s="17"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13" t="s">
+      <c r="C3" s="13"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="G3" s="13"/>
-      <c r="H3" s="13" t="s">
+      <c r="G3" s="15"/>
+      <c r="H3" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="13"/>
-      <c r="J3" s="13" t="s">
+      <c r="I3" s="15"/>
+      <c r="J3" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="K3" s="13"/>
-      <c r="L3" s="14" t="s">
+      <c r="K3" s="15"/>
+      <c r="L3" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="M3" s="14"/>
-      <c r="N3" s="16"/>
-      <c r="O3" s="13"/>
-      <c r="P3" s="13"/>
-      <c r="Q3" s="13" t="s">
+      <c r="M3" s="16"/>
+      <c r="N3" s="14"/>
+      <c r="O3" s="15"/>
+      <c r="P3" s="15"/>
+      <c r="Q3" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="R3" s="13"/>
-      <c r="S3" s="13" t="s">
+      <c r="R3" s="15"/>
+      <c r="S3" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="T3" s="13"/>
-      <c r="U3" s="13" t="s">
+      <c r="T3" s="15"/>
+      <c r="U3" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="V3" s="13"/>
-      <c r="W3" s="14" t="s">
+      <c r="V3" s="15"/>
+      <c r="W3" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="X3" s="14"/>
-      <c r="Y3" s="16"/>
-      <c r="Z3" s="13"/>
-      <c r="AA3" s="13"/>
-      <c r="AB3" s="13" t="s">
+      <c r="X3" s="16"/>
+      <c r="Y3" s="14"/>
+      <c r="Z3" s="15"/>
+      <c r="AA3" s="15"/>
+      <c r="AB3" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="AC3" s="13"/>
-      <c r="AD3" s="13" t="s">
+      <c r="AC3" s="15"/>
+      <c r="AD3" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="AE3" s="13"/>
-      <c r="AF3" s="13" t="s">
+      <c r="AE3" s="15"/>
+      <c r="AF3" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="AG3" s="13"/>
-      <c r="AH3" s="14" t="s">
+      <c r="AG3" s="15"/>
+      <c r="AH3" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="AI3" s="14"/>
-      <c r="AJ3" s="16"/>
-      <c r="AK3" s="13"/>
-      <c r="AL3" s="13"/>
-      <c r="AM3" s="13" t="s">
+      <c r="AI3" s="16"/>
+      <c r="AJ3" s="14"/>
+      <c r="AK3" s="15"/>
+      <c r="AL3" s="15"/>
+      <c r="AM3" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="AN3" s="13"/>
-      <c r="AO3" s="13" t="s">
+      <c r="AN3" s="15"/>
+      <c r="AO3" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="AP3" s="13"/>
-      <c r="AQ3" s="13" t="s">
+      <c r="AP3" s="15"/>
+      <c r="AQ3" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="AR3" s="13"/>
-      <c r="AS3" s="14" t="s">
+      <c r="AR3" s="15"/>
+      <c r="AS3" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="AT3" s="14"/>
-      <c r="AU3" s="16"/>
-      <c r="AV3" s="13"/>
-      <c r="AW3" s="13"/>
-      <c r="AX3" s="13" t="s">
+      <c r="AT3" s="16"/>
+      <c r="AU3" s="14"/>
+      <c r="AV3" s="15"/>
+      <c r="AW3" s="15"/>
+      <c r="AX3" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="AY3" s="13"/>
-      <c r="AZ3" s="13" t="s">
+      <c r="AY3" s="15"/>
+      <c r="AZ3" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="BA3" s="13"/>
-      <c r="BB3" s="13" t="s">
+      <c r="BA3" s="15"/>
+      <c r="BB3" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="BC3" s="13"/>
-      <c r="BD3" s="14" t="s">
+      <c r="BC3" s="15"/>
+      <c r="BD3" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="BE3" s="14"/>
-      <c r="BF3" s="16"/>
-      <c r="BG3" s="13"/>
-      <c r="BH3" s="13"/>
-      <c r="BI3" s="13" t="s">
+      <c r="BE3" s="16"/>
+      <c r="BF3" s="14"/>
+      <c r="BG3" s="15"/>
+      <c r="BH3" s="15"/>
+      <c r="BI3" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="BJ3" s="13"/>
-      <c r="BK3" s="13" t="s">
+      <c r="BJ3" s="15"/>
+      <c r="BK3" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="BL3" s="13"/>
-      <c r="BM3" s="13" t="s">
+      <c r="BL3" s="15"/>
+      <c r="BM3" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="BN3" s="13"/>
-      <c r="BO3" s="14" t="s">
+      <c r="BN3" s="15"/>
+      <c r="BO3" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="BP3" s="14"/>
+      <c r="BP3" s="16"/>
     </row>
     <row r="4" spans="1:68" ht="42.75" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
@@ -1114,7 +1112,7 @@
       </c>
     </row>
     <row r="5" spans="1:68" x14ac:dyDescent="0.25">
-      <c r="A5" s="12" t="s">
+      <c r="A5" s="18" t="s">
         <v>0</v>
       </c>
       <c r="B5" s="5" t="s">
@@ -1240,7 +1238,7 @@
       <c r="BF6" s="5"/>
     </row>
     <row r="7" spans="1:68" x14ac:dyDescent="0.25">
-      <c r="A7" s="12" t="s">
+      <c r="A7" s="18" t="s">
         <v>2</v>
       </c>
       <c r="B7" s="5" t="s">
@@ -1285,7 +1283,9 @@
       <c r="AG7" s="5"/>
       <c r="AH7" s="5"/>
       <c r="AI7" s="5"/>
-      <c r="AJ7" s="5"/>
+      <c r="AJ7" s="5" t="s">
+        <v>42</v>
+      </c>
       <c r="AK7" s="5"/>
       <c r="AL7" s="5"/>
       <c r="AM7" s="5"/>
@@ -1310,7 +1310,7 @@
       <c r="BF7" s="5"/>
     </row>
     <row r="8" spans="1:68" x14ac:dyDescent="0.25">
-      <c r="A8" s="12" t="s">
+      <c r="A8" s="18" t="s">
         <v>31</v>
       </c>
       <c r="B8" s="5" t="s">
@@ -1450,7 +1450,7 @@
       <c r="BF9" s="5"/>
     </row>
     <row r="10" spans="1:68" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="A10" s="18" t="s">
         <v>33</v>
       </c>
       <c r="B10" s="5" t="s">
@@ -1458,13 +1458,13 @@
       </c>
       <c r="C10" s="8"/>
       <c r="D10" s="11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G10" s="10"/>
       <c r="H10" s="10"/>
@@ -1495,7 +1495,9 @@
       <c r="AG10" s="5"/>
       <c r="AH10" s="5"/>
       <c r="AI10" s="5"/>
-      <c r="AJ10" s="5"/>
+      <c r="AJ10" s="5" t="s">
+        <v>42</v>
+      </c>
       <c r="AK10" s="5"/>
       <c r="AL10" s="5"/>
       <c r="AM10" s="5"/>
@@ -1582,7 +1584,7 @@
       <c r="BF11" s="5"/>
     </row>
     <row r="12" spans="1:68" x14ac:dyDescent="0.25">
-      <c r="A12" s="19" t="s">
+      <c r="A12" s="18" t="s">
         <v>44</v>
       </c>
       <c r="B12" s="5" t="s">
@@ -1629,7 +1631,9 @@
       <c r="AG12" s="5"/>
       <c r="AH12" s="5"/>
       <c r="AI12" s="5"/>
-      <c r="AJ12" s="5"/>
+      <c r="AJ12" s="5" t="s">
+        <v>42</v>
+      </c>
       <c r="AK12" s="5"/>
       <c r="AL12" s="5"/>
       <c r="AM12" s="5"/>
@@ -1654,7 +1658,7 @@
       <c r="BF12" s="5"/>
     </row>
     <row r="13" spans="1:68" x14ac:dyDescent="0.25">
-      <c r="A13" s="19" t="s">
+      <c r="A13" s="18" t="s">
         <v>45</v>
       </c>
       <c r="B13" s="5" t="s">
@@ -1699,7 +1703,9 @@
       <c r="AG13" s="5"/>
       <c r="AH13" s="5"/>
       <c r="AI13" s="5"/>
-      <c r="AJ13" s="5"/>
+      <c r="AJ13" s="5" t="s">
+        <v>42</v>
+      </c>
       <c r="AK13" s="5"/>
       <c r="AL13" s="5"/>
       <c r="AM13" s="5"/>
@@ -1724,7 +1730,12 @@
       <c r="BF13" s="5"/>
     </row>
     <row r="14" spans="1:68" x14ac:dyDescent="0.25">
-      <c r="B14" s="5"/>
+      <c r="A14" t="s">
+        <v>49</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>43</v>
+      </c>
       <c r="C14" s="8"/>
       <c r="D14" s="5"/>
       <c r="E14" s="5"/>
@@ -1784,22 +1795,14 @@
     </row>
     <row r="15" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>29</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>42</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="B15" s="5"/>
       <c r="C15" s="8"/>
-      <c r="D15" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="F15" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="G15" s="18"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
       <c r="H15" s="5"/>
       <c r="I15" s="5"/>
       <c r="J15" s="5"/>
@@ -1853,16 +1856,9 @@
       <c r="BF15" s="5"/>
     </row>
     <row r="16" spans="1:68" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>3</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>43</v>
-      </c>
+      <c r="B16" s="5"/>
       <c r="C16" s="8"/>
-      <c r="D16" s="5" t="s">
-        <v>43</v>
-      </c>
+      <c r="D16" s="5"/>
       <c r="E16" s="5"/>
       <c r="F16" s="5"/>
       <c r="G16" s="5"/>
@@ -1919,15 +1915,23 @@
       <c r="BF16" s="5"/>
     </row>
     <row r="17" spans="1:58" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>4</v>
-      </c>
-      <c r="B17" s="5"/>
+      <c r="A17" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>42</v>
+      </c>
       <c r="C17" s="8"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
+      <c r="D17" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G17" s="12"/>
       <c r="H17" s="5"/>
       <c r="I17" s="5"/>
       <c r="J17" s="5"/>
@@ -1956,7 +1960,9 @@
       <c r="AG17" s="5"/>
       <c r="AH17" s="5"/>
       <c r="AI17" s="5"/>
-      <c r="AJ17" s="5"/>
+      <c r="AJ17" s="5" t="s">
+        <v>42</v>
+      </c>
       <c r="AK17" s="5"/>
       <c r="AL17" s="5"/>
       <c r="AM17" s="5"/>
@@ -1981,16 +1987,22 @@
       <c r="BF17" s="5"/>
     </row>
     <row r="18" spans="1:58" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
-        <v>5</v>
+      <c r="A18" s="18" t="s">
+        <v>3</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C18" s="8"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
+      <c r="D18" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>42</v>
+      </c>
       <c r="G18" s="5"/>
       <c r="H18" s="5"/>
       <c r="I18" s="5"/>
@@ -2020,7 +2032,9 @@
       <c r="AG18" s="5"/>
       <c r="AH18" s="5"/>
       <c r="AI18" s="5"/>
-      <c r="AJ18" s="5"/>
+      <c r="AJ18" s="5" t="s">
+        <v>42</v>
+      </c>
       <c r="AK18" s="5"/>
       <c r="AL18" s="5"/>
       <c r="AM18" s="5"/>
@@ -2045,12 +2059,10 @@
       <c r="BF18" s="5"/>
     </row>
     <row r="19" spans="1:58" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>43</v>
-      </c>
+      <c r="A19" t="s">
+        <v>4</v>
+      </c>
+      <c r="B19" s="5"/>
       <c r="C19" s="8"/>
       <c r="D19" s="5"/>
       <c r="E19" s="5"/>
@@ -2110,9 +2122,11 @@
     </row>
     <row r="20" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B20" s="5"/>
+        <v>5</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>43</v>
+      </c>
       <c r="C20" s="8"/>
       <c r="D20" s="5"/>
       <c r="E20" s="5"/>
@@ -2171,10 +2185,12 @@
       <c r="BF20" s="5"/>
     </row>
     <row r="21" spans="1:58" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B21" s="5"/>
+      <c r="A21" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>43</v>
+      </c>
       <c r="C21" s="8"/>
       <c r="D21" s="5"/>
       <c r="E21" s="5"/>
@@ -2234,7 +2250,7 @@
     </row>
     <row r="22" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="B22" s="5"/>
       <c r="C22" s="8"/>
@@ -2295,8 +2311,8 @@
       <c r="BF22" s="5"/>
     </row>
     <row r="23" spans="1:58" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
-        <v>9</v>
+      <c r="A23" s="3" t="s">
+        <v>7</v>
       </c>
       <c r="B23" s="5"/>
       <c r="C23" s="8"/>
@@ -2357,8 +2373,8 @@
       <c r="BF23" s="5"/>
     </row>
     <row r="24" spans="1:58" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>10</v>
+      <c r="A24" s="2" t="s">
+        <v>30</v>
       </c>
       <c r="B24" s="5"/>
       <c r="C24" s="8"/>
@@ -2420,7 +2436,7 @@
     </row>
     <row r="25" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B25" s="5"/>
       <c r="C25" s="8"/>
@@ -2481,8 +2497,8 @@
       <c r="BF25" s="5"/>
     </row>
     <row r="26" spans="1:58" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
-        <v>12</v>
+      <c r="A26" t="s">
+        <v>10</v>
       </c>
       <c r="B26" s="5"/>
       <c r="C26" s="8"/>
@@ -2543,8 +2559,8 @@
       <c r="BF26" s="5"/>
     </row>
     <row r="27" spans="1:58" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>13</v>
+      <c r="A27" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="B27" s="5"/>
       <c r="C27" s="8"/>
@@ -2606,7 +2622,7 @@
     </row>
     <row r="28" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B28" s="5"/>
       <c r="C28" s="8"/>
@@ -2668,7 +2684,7 @@
     </row>
     <row r="29" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B29" s="5"/>
       <c r="C29" s="8"/>
@@ -2729,8 +2745,8 @@
       <c r="BF29" s="5"/>
     </row>
     <row r="30" spans="1:58" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>16</v>
+      <c r="A30" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="B30" s="5"/>
       <c r="C30" s="8"/>
@@ -2791,12 +2807,12 @@
       <c r="BF30" s="5"/>
     </row>
     <row r="31" spans="1:58" x14ac:dyDescent="0.25">
-      <c r="A31" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B31" s="7"/>
-      <c r="C31" s="9"/>
-      <c r="D31" s="7"/>
+      <c r="A31" t="s">
+        <v>15</v>
+      </c>
+      <c r="B31" s="5"/>
+      <c r="C31" s="8"/>
+      <c r="D31" s="5"/>
       <c r="E31" s="5"/>
       <c r="F31" s="5"/>
       <c r="G31" s="5"/>
@@ -2854,7 +2870,7 @@
     </row>
     <row r="32" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="B32" s="5"/>
       <c r="C32" s="8"/>
@@ -2915,12 +2931,12 @@
       <c r="BF32" s="5"/>
     </row>
     <row r="33" spans="1:58" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>46</v>
-      </c>
-      <c r="B33" s="5"/>
-      <c r="C33" s="8"/>
-      <c r="D33" s="5"/>
+      <c r="A33" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B33" s="7"/>
+      <c r="C33" s="9"/>
+      <c r="D33" s="7"/>
       <c r="E33" s="5"/>
       <c r="F33" s="5"/>
       <c r="G33" s="5"/>
@@ -2978,7 +2994,7 @@
     </row>
     <row r="34" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="B34" s="5"/>
       <c r="C34" s="8"/>
@@ -3040,7 +3056,7 @@
     </row>
     <row r="35" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B35" s="5"/>
       <c r="C35" s="8"/>
@@ -3100,8 +3116,164 @@
       <c r="BE35" s="5"/>
       <c r="BF35" s="5"/>
     </row>
+    <row r="36" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>47</v>
+      </c>
+      <c r="B36" s="5"/>
+      <c r="C36" s="8"/>
+      <c r="D36" s="5"/>
+      <c r="E36" s="5"/>
+      <c r="F36" s="5"/>
+      <c r="G36" s="5"/>
+      <c r="H36" s="5"/>
+      <c r="I36" s="5"/>
+      <c r="J36" s="5"/>
+      <c r="K36" s="5"/>
+      <c r="L36" s="5"/>
+      <c r="M36" s="5"/>
+      <c r="N36" s="5"/>
+      <c r="O36" s="5"/>
+      <c r="P36" s="5"/>
+      <c r="Q36" s="5"/>
+      <c r="R36" s="5"/>
+      <c r="S36" s="5"/>
+      <c r="T36" s="5"/>
+      <c r="U36" s="5"/>
+      <c r="V36" s="5"/>
+      <c r="W36" s="5"/>
+      <c r="X36" s="5"/>
+      <c r="Y36" s="5"/>
+      <c r="Z36" s="5"/>
+      <c r="AA36" s="5"/>
+      <c r="AB36" s="5"/>
+      <c r="AC36" s="5"/>
+      <c r="AD36" s="5"/>
+      <c r="AE36" s="5"/>
+      <c r="AF36" s="5"/>
+      <c r="AG36" s="5"/>
+      <c r="AH36" s="5"/>
+      <c r="AI36" s="5"/>
+      <c r="AJ36" s="5"/>
+      <c r="AK36" s="5"/>
+      <c r="AL36" s="5"/>
+      <c r="AM36" s="5"/>
+      <c r="AN36" s="5"/>
+      <c r="AO36" s="5"/>
+      <c r="AP36" s="5"/>
+      <c r="AQ36" s="5"/>
+      <c r="AR36" s="5"/>
+      <c r="AS36" s="5"/>
+      <c r="AT36" s="5"/>
+      <c r="AU36" s="5"/>
+      <c r="AV36" s="5"/>
+      <c r="AW36" s="5"/>
+      <c r="AX36" s="5"/>
+      <c r="AY36" s="5"/>
+      <c r="AZ36" s="5"/>
+      <c r="BA36" s="5"/>
+      <c r="BB36" s="5"/>
+      <c r="BC36" s="5"/>
+      <c r="BD36" s="5"/>
+      <c r="BE36" s="5"/>
+      <c r="BF36" s="5"/>
+    </row>
+    <row r="37" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>48</v>
+      </c>
+      <c r="B37" s="5"/>
+      <c r="C37" s="8"/>
+      <c r="D37" s="5"/>
+      <c r="E37" s="5"/>
+      <c r="F37" s="5"/>
+      <c r="G37" s="5"/>
+      <c r="H37" s="5"/>
+      <c r="I37" s="5"/>
+      <c r="J37" s="5"/>
+      <c r="K37" s="5"/>
+      <c r="L37" s="5"/>
+      <c r="M37" s="5"/>
+      <c r="N37" s="5"/>
+      <c r="O37" s="5"/>
+      <c r="P37" s="5"/>
+      <c r="Q37" s="5"/>
+      <c r="R37" s="5"/>
+      <c r="S37" s="5"/>
+      <c r="T37" s="5"/>
+      <c r="U37" s="5"/>
+      <c r="V37" s="5"/>
+      <c r="W37" s="5"/>
+      <c r="X37" s="5"/>
+      <c r="Y37" s="5"/>
+      <c r="Z37" s="5"/>
+      <c r="AA37" s="5"/>
+      <c r="AB37" s="5"/>
+      <c r="AC37" s="5"/>
+      <c r="AD37" s="5"/>
+      <c r="AE37" s="5"/>
+      <c r="AF37" s="5"/>
+      <c r="AG37" s="5"/>
+      <c r="AH37" s="5"/>
+      <c r="AI37" s="5"/>
+      <c r="AJ37" s="5"/>
+      <c r="AK37" s="5"/>
+      <c r="AL37" s="5"/>
+      <c r="AM37" s="5"/>
+      <c r="AN37" s="5"/>
+      <c r="AO37" s="5"/>
+      <c r="AP37" s="5"/>
+      <c r="AQ37" s="5"/>
+      <c r="AR37" s="5"/>
+      <c r="AS37" s="5"/>
+      <c r="AT37" s="5"/>
+      <c r="AU37" s="5"/>
+      <c r="AV37" s="5"/>
+      <c r="AW37" s="5"/>
+      <c r="AX37" s="5"/>
+      <c r="AY37" s="5"/>
+      <c r="AZ37" s="5"/>
+      <c r="BA37" s="5"/>
+      <c r="BB37" s="5"/>
+      <c r="BC37" s="5"/>
+      <c r="BD37" s="5"/>
+      <c r="BE37" s="5"/>
+      <c r="BF37" s="5"/>
+    </row>
   </sheetData>
   <mergeCells count="48">
+    <mergeCell ref="O2:P3"/>
+    <mergeCell ref="D1:M1"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="F2:M2"/>
+    <mergeCell ref="O1:X1"/>
+    <mergeCell ref="Q2:X2"/>
+    <mergeCell ref="AB3:AC3"/>
+    <mergeCell ref="AD3:AE3"/>
+    <mergeCell ref="AF3:AG3"/>
+    <mergeCell ref="AH3:AI3"/>
+    <mergeCell ref="Q3:R3"/>
+    <mergeCell ref="S3:T3"/>
+    <mergeCell ref="U3:V3"/>
+    <mergeCell ref="W3:X3"/>
+    <mergeCell ref="AV1:BE1"/>
+    <mergeCell ref="AV2:AW3"/>
+    <mergeCell ref="AX2:BE2"/>
+    <mergeCell ref="AX3:AY3"/>
+    <mergeCell ref="AZ3:BA3"/>
+    <mergeCell ref="BB3:BC3"/>
+    <mergeCell ref="BD3:BE3"/>
+    <mergeCell ref="BF1:BF3"/>
+    <mergeCell ref="BG1:BP1"/>
+    <mergeCell ref="BG2:BH3"/>
+    <mergeCell ref="BI2:BP2"/>
+    <mergeCell ref="BI3:BJ3"/>
+    <mergeCell ref="BK3:BL3"/>
+    <mergeCell ref="BM3:BN3"/>
+    <mergeCell ref="BO3:BP3"/>
     <mergeCell ref="C1:C3"/>
     <mergeCell ref="N1:N3"/>
     <mergeCell ref="Y1:Y3"/>
@@ -3118,38 +3290,6 @@
     <mergeCell ref="D2:E3"/>
     <mergeCell ref="Z2:AA3"/>
     <mergeCell ref="AB2:AI2"/>
-    <mergeCell ref="BF1:BF3"/>
-    <mergeCell ref="BG1:BP1"/>
-    <mergeCell ref="BG2:BH3"/>
-    <mergeCell ref="BI2:BP2"/>
-    <mergeCell ref="BI3:BJ3"/>
-    <mergeCell ref="BK3:BL3"/>
-    <mergeCell ref="BM3:BN3"/>
-    <mergeCell ref="BO3:BP3"/>
-    <mergeCell ref="AV1:BE1"/>
-    <mergeCell ref="AV2:AW3"/>
-    <mergeCell ref="AX2:BE2"/>
-    <mergeCell ref="AX3:AY3"/>
-    <mergeCell ref="AZ3:BA3"/>
-    <mergeCell ref="BB3:BC3"/>
-    <mergeCell ref="BD3:BE3"/>
-    <mergeCell ref="AB3:AC3"/>
-    <mergeCell ref="AD3:AE3"/>
-    <mergeCell ref="AF3:AG3"/>
-    <mergeCell ref="AH3:AI3"/>
-    <mergeCell ref="Q3:R3"/>
-    <mergeCell ref="S3:T3"/>
-    <mergeCell ref="U3:V3"/>
-    <mergeCell ref="W3:X3"/>
-    <mergeCell ref="O2:P3"/>
-    <mergeCell ref="D1:M1"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="F2:M2"/>
-    <mergeCell ref="O1:X1"/>
-    <mergeCell ref="Q2:X2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>

--- a/ResStudio/Prototype/Works.xlsx
+++ b/ResStudio/Prototype/Works.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="51">
   <si>
     <t>Level 1 tasks non in context, e.g. "chol" Aii ???</t>
   </si>
@@ -276,12 +276,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -291,7 +286,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -599,7 +599,7 @@
   <dimension ref="A1:BP37"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
@@ -621,304 +621,304 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:68" x14ac:dyDescent="0.25">
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="D1" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-      <c r="K1" s="15"/>
-      <c r="L1" s="15"/>
-      <c r="M1" s="15"/>
-      <c r="N1" s="14" t="s">
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="14"/>
+      <c r="L1" s="14"/>
+      <c r="M1" s="14"/>
+      <c r="N1" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="O1" s="17" t="s">
+      <c r="O1" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="P1" s="17"/>
-      <c r="Q1" s="17"/>
-      <c r="R1" s="17"/>
-      <c r="S1" s="17"/>
-      <c r="T1" s="17"/>
-      <c r="U1" s="17"/>
-      <c r="V1" s="17"/>
-      <c r="W1" s="17"/>
-      <c r="X1" s="17"/>
-      <c r="Y1" s="14" t="s">
+      <c r="P1" s="16"/>
+      <c r="Q1" s="16"/>
+      <c r="R1" s="16"/>
+      <c r="S1" s="16"/>
+      <c r="T1" s="16"/>
+      <c r="U1" s="16"/>
+      <c r="V1" s="16"/>
+      <c r="W1" s="16"/>
+      <c r="X1" s="16"/>
+      <c r="Y1" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="Z1" s="15" t="s">
+      <c r="Z1" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="AA1" s="15"/>
-      <c r="AB1" s="15"/>
-      <c r="AC1" s="15"/>
-      <c r="AD1" s="15"/>
-      <c r="AE1" s="15"/>
-      <c r="AF1" s="15"/>
-      <c r="AG1" s="15"/>
-      <c r="AH1" s="15"/>
-      <c r="AI1" s="15"/>
-      <c r="AJ1" s="14" t="s">
+      <c r="AA1" s="14"/>
+      <c r="AB1" s="14"/>
+      <c r="AC1" s="14"/>
+      <c r="AD1" s="14"/>
+      <c r="AE1" s="14"/>
+      <c r="AF1" s="14"/>
+      <c r="AG1" s="14"/>
+      <c r="AH1" s="14"/>
+      <c r="AI1" s="14"/>
+      <c r="AJ1" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="AK1" s="15" t="s">
+      <c r="AK1" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="AL1" s="15"/>
-      <c r="AM1" s="15"/>
-      <c r="AN1" s="15"/>
-      <c r="AO1" s="15"/>
-      <c r="AP1" s="15"/>
-      <c r="AQ1" s="15"/>
-      <c r="AR1" s="15"/>
-      <c r="AS1" s="15"/>
-      <c r="AT1" s="15"/>
-      <c r="AU1" s="14" t="s">
+      <c r="AL1" s="14"/>
+      <c r="AM1" s="14"/>
+      <c r="AN1" s="14"/>
+      <c r="AO1" s="14"/>
+      <c r="AP1" s="14"/>
+      <c r="AQ1" s="14"/>
+      <c r="AR1" s="14"/>
+      <c r="AS1" s="14"/>
+      <c r="AT1" s="14"/>
+      <c r="AU1" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="AV1" s="15" t="s">
+      <c r="AV1" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="AW1" s="15"/>
-      <c r="AX1" s="15"/>
-      <c r="AY1" s="15"/>
-      <c r="AZ1" s="15"/>
-      <c r="BA1" s="15"/>
-      <c r="BB1" s="15"/>
-      <c r="BC1" s="15"/>
-      <c r="BD1" s="15"/>
-      <c r="BE1" s="15"/>
-      <c r="BF1" s="14" t="s">
+      <c r="AW1" s="14"/>
+      <c r="AX1" s="14"/>
+      <c r="AY1" s="14"/>
+      <c r="AZ1" s="14"/>
+      <c r="BA1" s="14"/>
+      <c r="BB1" s="14"/>
+      <c r="BC1" s="14"/>
+      <c r="BD1" s="14"/>
+      <c r="BE1" s="14"/>
+      <c r="BF1" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="BG1" s="15" t="s">
+      <c r="BG1" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="BH1" s="15"/>
-      <c r="BI1" s="15"/>
-      <c r="BJ1" s="15"/>
-      <c r="BK1" s="15"/>
-      <c r="BL1" s="15"/>
-      <c r="BM1" s="15"/>
-      <c r="BN1" s="15"/>
-      <c r="BO1" s="15"/>
-      <c r="BP1" s="15"/>
+      <c r="BH1" s="14"/>
+      <c r="BI1" s="14"/>
+      <c r="BJ1" s="14"/>
+      <c r="BK1" s="14"/>
+      <c r="BL1" s="14"/>
+      <c r="BM1" s="14"/>
+      <c r="BN1" s="14"/>
+      <c r="BO1" s="14"/>
+      <c r="BP1" s="14"/>
     </row>
     <row r="2" spans="1:68" x14ac:dyDescent="0.25">
-      <c r="C2" s="13"/>
-      <c r="D2" s="15" t="s">
+      <c r="C2" s="18"/>
+      <c r="D2" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="E2" s="15"/>
-      <c r="F2" s="16" t="s">
+      <c r="E2" s="14"/>
+      <c r="F2" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="G2" s="16"/>
-      <c r="H2" s="16"/>
-      <c r="I2" s="16"/>
-      <c r="J2" s="16"/>
-      <c r="K2" s="16"/>
-      <c r="L2" s="16"/>
-      <c r="M2" s="16"/>
-      <c r="N2" s="14"/>
-      <c r="O2" s="15" t="s">
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="15"/>
+      <c r="K2" s="15"/>
+      <c r="L2" s="15"/>
+      <c r="M2" s="15"/>
+      <c r="N2" s="17"/>
+      <c r="O2" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="P2" s="15"/>
-      <c r="Q2" s="16" t="s">
+      <c r="P2" s="14"/>
+      <c r="Q2" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="R2" s="16"/>
-      <c r="S2" s="16"/>
-      <c r="T2" s="16"/>
-      <c r="U2" s="16"/>
-      <c r="V2" s="16"/>
-      <c r="W2" s="16"/>
-      <c r="X2" s="16"/>
-      <c r="Y2" s="14"/>
-      <c r="Z2" s="15" t="s">
+      <c r="R2" s="15"/>
+      <c r="S2" s="15"/>
+      <c r="T2" s="15"/>
+      <c r="U2" s="15"/>
+      <c r="V2" s="15"/>
+      <c r="W2" s="15"/>
+      <c r="X2" s="15"/>
+      <c r="Y2" s="17"/>
+      <c r="Z2" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="AA2" s="15"/>
-      <c r="AB2" s="16" t="s">
+      <c r="AA2" s="14"/>
+      <c r="AB2" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="AC2" s="16"/>
-      <c r="AD2" s="16"/>
-      <c r="AE2" s="16"/>
-      <c r="AF2" s="16"/>
-      <c r="AG2" s="16"/>
-      <c r="AH2" s="16"/>
-      <c r="AI2" s="16"/>
-      <c r="AJ2" s="14"/>
-      <c r="AK2" s="15" t="s">
+      <c r="AC2" s="15"/>
+      <c r="AD2" s="15"/>
+      <c r="AE2" s="15"/>
+      <c r="AF2" s="15"/>
+      <c r="AG2" s="15"/>
+      <c r="AH2" s="15"/>
+      <c r="AI2" s="15"/>
+      <c r="AJ2" s="17"/>
+      <c r="AK2" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="AL2" s="15"/>
-      <c r="AM2" s="16" t="s">
+      <c r="AL2" s="14"/>
+      <c r="AM2" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="AN2" s="16"/>
-      <c r="AO2" s="16"/>
-      <c r="AP2" s="16"/>
-      <c r="AQ2" s="16"/>
-      <c r="AR2" s="16"/>
-      <c r="AS2" s="16"/>
-      <c r="AT2" s="16"/>
-      <c r="AU2" s="14"/>
-      <c r="AV2" s="15" t="s">
+      <c r="AN2" s="15"/>
+      <c r="AO2" s="15"/>
+      <c r="AP2" s="15"/>
+      <c r="AQ2" s="15"/>
+      <c r="AR2" s="15"/>
+      <c r="AS2" s="15"/>
+      <c r="AT2" s="15"/>
+      <c r="AU2" s="17"/>
+      <c r="AV2" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="AW2" s="15"/>
-      <c r="AX2" s="16" t="s">
+      <c r="AW2" s="14"/>
+      <c r="AX2" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="AY2" s="16"/>
-      <c r="AZ2" s="16"/>
-      <c r="BA2" s="16"/>
-      <c r="BB2" s="16"/>
-      <c r="BC2" s="16"/>
-      <c r="BD2" s="16"/>
-      <c r="BE2" s="16"/>
-      <c r="BF2" s="14"/>
-      <c r="BG2" s="15" t="s">
+      <c r="AY2" s="15"/>
+      <c r="AZ2" s="15"/>
+      <c r="BA2" s="15"/>
+      <c r="BB2" s="15"/>
+      <c r="BC2" s="15"/>
+      <c r="BD2" s="15"/>
+      <c r="BE2" s="15"/>
+      <c r="BF2" s="17"/>
+      <c r="BG2" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="BH2" s="15"/>
-      <c r="BI2" s="16" t="s">
+      <c r="BH2" s="14"/>
+      <c r="BI2" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="BJ2" s="16"/>
-      <c r="BK2" s="16"/>
-      <c r="BL2" s="16"/>
-      <c r="BM2" s="16"/>
-      <c r="BN2" s="16"/>
-      <c r="BO2" s="16"/>
-      <c r="BP2" s="16"/>
+      <c r="BJ2" s="15"/>
+      <c r="BK2" s="15"/>
+      <c r="BL2" s="15"/>
+      <c r="BM2" s="15"/>
+      <c r="BN2" s="15"/>
+      <c r="BO2" s="15"/>
+      <c r="BP2" s="15"/>
     </row>
     <row r="3" spans="1:68" x14ac:dyDescent="0.25">
-      <c r="C3" s="13"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15" t="s">
+      <c r="C3" s="18"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="G3" s="15"/>
-      <c r="H3" s="15" t="s">
+      <c r="G3" s="14"/>
+      <c r="H3" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="15"/>
-      <c r="J3" s="15" t="s">
+      <c r="I3" s="14"/>
+      <c r="J3" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="K3" s="15"/>
-      <c r="L3" s="16" t="s">
+      <c r="K3" s="14"/>
+      <c r="L3" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="M3" s="16"/>
-      <c r="N3" s="14"/>
-      <c r="O3" s="15"/>
-      <c r="P3" s="15"/>
-      <c r="Q3" s="15" t="s">
+      <c r="M3" s="15"/>
+      <c r="N3" s="17"/>
+      <c r="O3" s="14"/>
+      <c r="P3" s="14"/>
+      <c r="Q3" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="R3" s="15"/>
-      <c r="S3" s="15" t="s">
+      <c r="R3" s="14"/>
+      <c r="S3" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="T3" s="15"/>
-      <c r="U3" s="15" t="s">
+      <c r="T3" s="14"/>
+      <c r="U3" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="V3" s="15"/>
-      <c r="W3" s="16" t="s">
+      <c r="V3" s="14"/>
+      <c r="W3" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="X3" s="16"/>
-      <c r="Y3" s="14"/>
-      <c r="Z3" s="15"/>
-      <c r="AA3" s="15"/>
-      <c r="AB3" s="15" t="s">
+      <c r="X3" s="15"/>
+      <c r="Y3" s="17"/>
+      <c r="Z3" s="14"/>
+      <c r="AA3" s="14"/>
+      <c r="AB3" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="AC3" s="15"/>
-      <c r="AD3" s="15" t="s">
+      <c r="AC3" s="14"/>
+      <c r="AD3" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="AE3" s="15"/>
-      <c r="AF3" s="15" t="s">
+      <c r="AE3" s="14"/>
+      <c r="AF3" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="AG3" s="15"/>
-      <c r="AH3" s="16" t="s">
+      <c r="AG3" s="14"/>
+      <c r="AH3" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="AI3" s="16"/>
-      <c r="AJ3" s="14"/>
-      <c r="AK3" s="15"/>
-      <c r="AL3" s="15"/>
-      <c r="AM3" s="15" t="s">
+      <c r="AI3" s="15"/>
+      <c r="AJ3" s="17"/>
+      <c r="AK3" s="14"/>
+      <c r="AL3" s="14"/>
+      <c r="AM3" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="AN3" s="15"/>
-      <c r="AO3" s="15" t="s">
+      <c r="AN3" s="14"/>
+      <c r="AO3" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="AP3" s="15"/>
-      <c r="AQ3" s="15" t="s">
+      <c r="AP3" s="14"/>
+      <c r="AQ3" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="AR3" s="15"/>
-      <c r="AS3" s="16" t="s">
+      <c r="AR3" s="14"/>
+      <c r="AS3" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="AT3" s="16"/>
-      <c r="AU3" s="14"/>
-      <c r="AV3" s="15"/>
-      <c r="AW3" s="15"/>
-      <c r="AX3" s="15" t="s">
+      <c r="AT3" s="15"/>
+      <c r="AU3" s="17"/>
+      <c r="AV3" s="14"/>
+      <c r="AW3" s="14"/>
+      <c r="AX3" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="AY3" s="15"/>
-      <c r="AZ3" s="15" t="s">
+      <c r="AY3" s="14"/>
+      <c r="AZ3" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="BA3" s="15"/>
-      <c r="BB3" s="15" t="s">
+      <c r="BA3" s="14"/>
+      <c r="BB3" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="BC3" s="15"/>
-      <c r="BD3" s="16" t="s">
+      <c r="BC3" s="14"/>
+      <c r="BD3" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="BE3" s="16"/>
-      <c r="BF3" s="14"/>
-      <c r="BG3" s="15"/>
-      <c r="BH3" s="15"/>
-      <c r="BI3" s="15" t="s">
+      <c r="BE3" s="15"/>
+      <c r="BF3" s="17"/>
+      <c r="BG3" s="14"/>
+      <c r="BH3" s="14"/>
+      <c r="BI3" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="BJ3" s="15"/>
-      <c r="BK3" s="15" t="s">
+      <c r="BJ3" s="14"/>
+      <c r="BK3" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="BL3" s="15"/>
-      <c r="BM3" s="15" t="s">
+      <c r="BL3" s="14"/>
+      <c r="BM3" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="BN3" s="15"/>
-      <c r="BO3" s="16" t="s">
+      <c r="BN3" s="14"/>
+      <c r="BO3" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="BP3" s="16"/>
+      <c r="BP3" s="15"/>
     </row>
     <row r="4" spans="1:68" ht="42.75" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
@@ -1112,7 +1112,7 @@
       </c>
     </row>
     <row r="5" spans="1:68" x14ac:dyDescent="0.25">
-      <c r="A5" s="18" t="s">
+      <c r="A5" s="13" t="s">
         <v>0</v>
       </c>
       <c r="B5" s="5" t="s">
@@ -1238,7 +1238,7 @@
       <c r="BF6" s="5"/>
     </row>
     <row r="7" spans="1:68" x14ac:dyDescent="0.25">
-      <c r="A7" s="18" t="s">
+      <c r="A7" s="13" t="s">
         <v>2</v>
       </c>
       <c r="B7" s="5" t="s">
@@ -1310,7 +1310,7 @@
       <c r="BF7" s="5"/>
     </row>
     <row r="8" spans="1:68" x14ac:dyDescent="0.25">
-      <c r="A8" s="18" t="s">
+      <c r="A8" s="13" t="s">
         <v>31</v>
       </c>
       <c r="B8" s="5" t="s">
@@ -1450,7 +1450,7 @@
       <c r="BF9" s="5"/>
     </row>
     <row r="10" spans="1:68" x14ac:dyDescent="0.25">
-      <c r="A10" s="18" t="s">
+      <c r="A10" s="13" t="s">
         <v>33</v>
       </c>
       <c r="B10" s="5" t="s">
@@ -1584,7 +1584,7 @@
       <c r="BF11" s="5"/>
     </row>
     <row r="12" spans="1:68" x14ac:dyDescent="0.25">
-      <c r="A12" s="18" t="s">
+      <c r="A12" s="13" t="s">
         <v>44</v>
       </c>
       <c r="B12" s="5" t="s">
@@ -1658,7 +1658,7 @@
       <c r="BF12" s="5"/>
     </row>
     <row r="13" spans="1:68" x14ac:dyDescent="0.25">
-      <c r="A13" s="18" t="s">
+      <c r="A13" s="13" t="s">
         <v>45</v>
       </c>
       <c r="B13" s="5" t="s">
@@ -1915,7 +1915,7 @@
       <c r="BF16" s="5"/>
     </row>
     <row r="17" spans="1:58" x14ac:dyDescent="0.25">
-      <c r="A17" s="18" t="s">
+      <c r="A17" s="13" t="s">
         <v>29</v>
       </c>
       <c r="B17" s="5" t="s">
@@ -1987,7 +1987,7 @@
       <c r="BF17" s="5"/>
     </row>
     <row r="18" spans="1:58" x14ac:dyDescent="0.25">
-      <c r="A18" s="18" t="s">
+      <c r="A18" s="13" t="s">
         <v>3</v>
       </c>
       <c r="B18" s="5" t="s">
@@ -2252,7 +2252,9 @@
       <c r="A22" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B22" s="5"/>
+      <c r="B22" s="5" t="s">
+        <v>43</v>
+      </c>
       <c r="C22" s="8"/>
       <c r="D22" s="5"/>
       <c r="E22" s="5"/>
@@ -2376,7 +2378,9 @@
       <c r="A24" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B24" s="5"/>
+      <c r="B24" s="5" t="s">
+        <v>43</v>
+      </c>
       <c r="C24" s="8"/>
       <c r="D24" s="5"/>
       <c r="E24" s="5"/>
@@ -3242,38 +3246,6 @@
     </row>
   </sheetData>
   <mergeCells count="48">
-    <mergeCell ref="O2:P3"/>
-    <mergeCell ref="D1:M1"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="F2:M2"/>
-    <mergeCell ref="O1:X1"/>
-    <mergeCell ref="Q2:X2"/>
-    <mergeCell ref="AB3:AC3"/>
-    <mergeCell ref="AD3:AE3"/>
-    <mergeCell ref="AF3:AG3"/>
-    <mergeCell ref="AH3:AI3"/>
-    <mergeCell ref="Q3:R3"/>
-    <mergeCell ref="S3:T3"/>
-    <mergeCell ref="U3:V3"/>
-    <mergeCell ref="W3:X3"/>
-    <mergeCell ref="AV1:BE1"/>
-    <mergeCell ref="AV2:AW3"/>
-    <mergeCell ref="AX2:BE2"/>
-    <mergeCell ref="AX3:AY3"/>
-    <mergeCell ref="AZ3:BA3"/>
-    <mergeCell ref="BB3:BC3"/>
-    <mergeCell ref="BD3:BE3"/>
-    <mergeCell ref="BF1:BF3"/>
-    <mergeCell ref="BG1:BP1"/>
-    <mergeCell ref="BG2:BH3"/>
-    <mergeCell ref="BI2:BP2"/>
-    <mergeCell ref="BI3:BJ3"/>
-    <mergeCell ref="BK3:BL3"/>
-    <mergeCell ref="BM3:BN3"/>
-    <mergeCell ref="BO3:BP3"/>
     <mergeCell ref="C1:C3"/>
     <mergeCell ref="N1:N3"/>
     <mergeCell ref="Y1:Y3"/>
@@ -3290,6 +3262,38 @@
     <mergeCell ref="D2:E3"/>
     <mergeCell ref="Z2:AA3"/>
     <mergeCell ref="AB2:AI2"/>
+    <mergeCell ref="BF1:BF3"/>
+    <mergeCell ref="BG1:BP1"/>
+    <mergeCell ref="BG2:BH3"/>
+    <mergeCell ref="BI2:BP2"/>
+    <mergeCell ref="BI3:BJ3"/>
+    <mergeCell ref="BK3:BL3"/>
+    <mergeCell ref="BM3:BN3"/>
+    <mergeCell ref="BO3:BP3"/>
+    <mergeCell ref="AV1:BE1"/>
+    <mergeCell ref="AV2:AW3"/>
+    <mergeCell ref="AX2:BE2"/>
+    <mergeCell ref="AX3:AY3"/>
+    <mergeCell ref="AZ3:BA3"/>
+    <mergeCell ref="BB3:BC3"/>
+    <mergeCell ref="BD3:BE3"/>
+    <mergeCell ref="AB3:AC3"/>
+    <mergeCell ref="AD3:AE3"/>
+    <mergeCell ref="AF3:AG3"/>
+    <mergeCell ref="AH3:AI3"/>
+    <mergeCell ref="Q3:R3"/>
+    <mergeCell ref="S3:T3"/>
+    <mergeCell ref="U3:V3"/>
+    <mergeCell ref="W3:X3"/>
+    <mergeCell ref="O2:P3"/>
+    <mergeCell ref="D1:M1"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="F2:M2"/>
+    <mergeCell ref="O1:X1"/>
+    <mergeCell ref="Q2:X2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
